--- a/biology/Biochimie/Acide_tétrahydrofolique/Acide_tétrahydrofolique.xlsx
+++ b/biology/Biochimie/Acide_tétrahydrofolique/Acide_tétrahydrofolique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acide_t%C3%A9trahydrofolique</t>
+          <t>Acide_tétrahydrofolique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’acide tétrahydrofolique, couramment abrégé en THFA ou H4FA dans la littérature anglophone, est une coenzyme dérivée de l'acide folique, ou vitamine B9, qui intervient dans un grand nombre de réactions biochimiques, notamment dans le métabolisme des acides aminés et des acides nucléiques (en particulier des purines), comme activateur de groupes monocarbonés destinés à ces réactions de biosynthèse. Sa forme biologiquement active est sa base conjuguée, l'anion tétrahydrofolate.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acide_t%C3%A9trahydrofolique</t>
+          <t>Acide_tétrahydrofolique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La molécule est composé d'une unité ptéridine substituée, d'un p-aminobenzoate et d'un ou de plusieurs résidus glutamiques[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La molécule est composé d'une unité ptéridine substituée, d'un p-aminobenzoate et d'un ou de plusieurs résidus glutamiques.
 </t>
         </is>
       </c>
